--- a/artfynd/A 29183-2023.xlsx
+++ b/artfynd/A 29183-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112276243</v>
       </c>
       <c r="B2" t="n">
-        <v>108492</v>
+        <v>108521</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
